--- a/large_dots_stats.xlsx
+++ b/large_dots_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>File Name</t>
   </si>
@@ -53,6 +53,39 @@
   </si>
   <si>
     <t>eco_filterin_dot\Purine.dot</t>
+  </si>
+  <si>
+    <t>hsa_filtering_dot\Biosynthesis of amino acids.dot</t>
+  </si>
+  <si>
+    <t>hsa_filtering_dot\Biosynthesis of cofactors.dot</t>
+  </si>
+  <si>
+    <t>hsa_filtering_dot\Carbon metabolism.dot</t>
+  </si>
+  <si>
+    <t>hsa_filtering_dot\Nucleotide metabolism.dot</t>
+  </si>
+  <si>
+    <t>hsa_filtering_dot\Purine.dot</t>
+  </si>
+  <si>
+    <t>hsa_filtering_dot\test.dot</t>
+  </si>
+  <si>
+    <t>mmu_filtering_dot\Biosynthesis of amino acids.dot</t>
+  </si>
+  <si>
+    <t>mmu_filtering_dot\Biosynthesis of cofactors.dot</t>
+  </si>
+  <si>
+    <t>mmu_filtering_dot\Carbon metabolism.dot</t>
+  </si>
+  <si>
+    <t>mmu_filtering_dot\Nucleotide metabolism.dot</t>
+  </si>
+  <si>
+    <t>mmu_filtering_dot\Purine.dot</t>
   </si>
 </sst>
 </file>
@@ -410,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,6 +605,292 @@
         <v>-59.16</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>434</v>
+      </c>
+      <c r="D7">
+        <v>244</v>
+      </c>
+      <c r="E7">
+        <v>288</v>
+      </c>
+      <c r="F7">
+        <v>98</v>
+      </c>
+      <c r="G7">
+        <v>-43.78</v>
+      </c>
+      <c r="H7">
+        <v>-65.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>326</v>
+      </c>
+      <c r="C8">
+        <v>886</v>
+      </c>
+      <c r="D8">
+        <v>452</v>
+      </c>
+      <c r="E8">
+        <v>560</v>
+      </c>
+      <c r="F8">
+        <v>126</v>
+      </c>
+      <c r="G8">
+        <v>-48.98</v>
+      </c>
+      <c r="H8">
+        <v>-77.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>181</v>
+      </c>
+      <c r="C9">
+        <v>537</v>
+      </c>
+      <c r="D9">
+        <v>317</v>
+      </c>
+      <c r="E9">
+        <v>356</v>
+      </c>
+      <c r="F9">
+        <v>136</v>
+      </c>
+      <c r="G9">
+        <v>-40.97</v>
+      </c>
+      <c r="H9">
+        <v>-61.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>214</v>
+      </c>
+      <c r="C10">
+        <v>766</v>
+      </c>
+      <c r="D10">
+        <v>468</v>
+      </c>
+      <c r="E10">
+        <v>552</v>
+      </c>
+      <c r="F10">
+        <v>254</v>
+      </c>
+      <c r="G10">
+        <v>-38.9</v>
+      </c>
+      <c r="H10">
+        <v>-53.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>228</v>
+      </c>
+      <c r="C11">
+        <v>772</v>
+      </c>
+      <c r="D11">
+        <v>466</v>
+      </c>
+      <c r="E11">
+        <v>544</v>
+      </c>
+      <c r="F11">
+        <v>238</v>
+      </c>
+      <c r="G11">
+        <v>-39.64</v>
+      </c>
+      <c r="H11">
+        <v>-56.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>-52.94</v>
+      </c>
+      <c r="H12">
+        <v>-85.70999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>447</v>
+      </c>
+      <c r="D13">
+        <v>253</v>
+      </c>
+      <c r="E13">
+        <v>297</v>
+      </c>
+      <c r="F13">
+        <v>103</v>
+      </c>
+      <c r="G13">
+        <v>-43.4</v>
+      </c>
+      <c r="H13">
+        <v>-65.31999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>329</v>
+      </c>
+      <c r="C14">
+        <v>894</v>
+      </c>
+      <c r="D14">
+        <v>456</v>
+      </c>
+      <c r="E14">
+        <v>565</v>
+      </c>
+      <c r="F14">
+        <v>127</v>
+      </c>
+      <c r="G14">
+        <v>-48.99</v>
+      </c>
+      <c r="H14">
+        <v>-77.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>537</v>
+      </c>
+      <c r="D15">
+        <v>317</v>
+      </c>
+      <c r="E15">
+        <v>356</v>
+      </c>
+      <c r="F15">
+        <v>136</v>
+      </c>
+      <c r="G15">
+        <v>-40.97</v>
+      </c>
+      <c r="H15">
+        <v>-61.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>214</v>
+      </c>
+      <c r="C16">
+        <v>766</v>
+      </c>
+      <c r="D16">
+        <v>468</v>
+      </c>
+      <c r="E16">
+        <v>552</v>
+      </c>
+      <c r="F16">
+        <v>254</v>
+      </c>
+      <c r="G16">
+        <v>-38.9</v>
+      </c>
+      <c r="H16">
+        <v>-53.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>234</v>
+      </c>
+      <c r="C17">
+        <v>789</v>
+      </c>
+      <c r="D17">
+        <v>475</v>
+      </c>
+      <c r="E17">
+        <v>555</v>
+      </c>
+      <c r="F17">
+        <v>241</v>
+      </c>
+      <c r="G17">
+        <v>-39.8</v>
+      </c>
+      <c r="H17">
+        <v>-56.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/large_dots_stats.xlsx
+++ b/large_dots_stats.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsh\Documents\GitHub\BachelorQUBOProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA5EE5-4750-4E8B-851D-17FBE7692E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -40,59 +46,56 @@
     <t>% difference Nr. of aux. Variables</t>
   </si>
   <si>
-    <t>eco_filterin_dot\Biosynthesis of amino acids.dot</t>
-  </si>
-  <si>
-    <t>eco_filterin_dot\Biosynthesis of cofactors.dot</t>
-  </si>
-  <si>
-    <t>eco_filterin_dot\Carbon metabolism.dot</t>
-  </si>
-  <si>
-    <t>eco_filterin_dot\Nucleotide metabolism.dot</t>
-  </si>
-  <si>
-    <t>eco_filterin_dot\Purine.dot</t>
-  </si>
-  <si>
-    <t>hsa_filtering_dot\Biosynthesis of amino acids.dot</t>
-  </si>
-  <si>
-    <t>hsa_filtering_dot\Biosynthesis of cofactors.dot</t>
-  </si>
-  <si>
-    <t>hsa_filtering_dot\Carbon metabolism.dot</t>
-  </si>
-  <si>
-    <t>hsa_filtering_dot\Nucleotide metabolism.dot</t>
-  </si>
-  <si>
-    <t>hsa_filtering_dot\Purine.dot</t>
-  </si>
-  <si>
-    <t>hsa_filtering_dot\test.dot</t>
-  </si>
-  <si>
-    <t>mmu_filtering_dot\Biosynthesis of amino acids.dot</t>
-  </si>
-  <si>
-    <t>mmu_filtering_dot\Biosynthesis of cofactors.dot</t>
-  </si>
-  <si>
-    <t>mmu_filtering_dot\Carbon metabolism.dot</t>
-  </si>
-  <si>
-    <t>mmu_filtering_dot\Nucleotide metabolism.dot</t>
-  </si>
-  <si>
-    <t>mmu_filtering_dot\Purine.dot</t>
+    <t>eco\Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>eco\Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>eco\Carbon metabolism</t>
+  </si>
+  <si>
+    <t>eco\Nucleotide metabolism</t>
+  </si>
+  <si>
+    <t>eco\Purine</t>
+  </si>
+  <si>
+    <t>hsa\Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>hsa\Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>hsa\Carbon metabolism</t>
+  </si>
+  <si>
+    <t>hsa\Nucleotide metabolism</t>
+  </si>
+  <si>
+    <t>hsa\Purine</t>
+  </si>
+  <si>
+    <t>mmu\Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>mmu\Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>mmu\Carbon metabolism</t>
+  </si>
+  <si>
+    <t>mmu\Nucleotide metabolism</t>
+  </si>
+  <si>
+    <t>mmu\Purine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,17 +154,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +210,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -233,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,9 +279,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,14 +455,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -498,10 +516,10 @@
         <v>-45.49</v>
       </c>
       <c r="H2">
-        <v>-69.81999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-69.819999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -527,7 +545,7 @@
         <v>-76.81</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -553,7 +571,7 @@
         <v>-56.86</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -579,7 +597,7 @@
         <v>-56.09</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -605,7 +623,7 @@
         <v>-59.16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -631,7 +649,7 @@
         <v>-65.97</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -657,7 +675,7 @@
         <v>-77.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -683,7 +701,7 @@
         <v>-61.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -709,7 +727,7 @@
         <v>-53.99</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -735,159 +753,133 @@
         <v>-56.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>447</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G12">
-        <v>-52.94</v>
+        <v>-43.4</v>
       </c>
       <c r="H12">
-        <v>-85.70999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-65.319999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="C13">
-        <v>447</v>
+        <v>894</v>
       </c>
       <c r="D13">
-        <v>253</v>
+        <v>456</v>
       </c>
       <c r="E13">
-        <v>297</v>
+        <v>565</v>
       </c>
       <c r="F13">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G13">
-        <v>-43.4</v>
+        <v>-48.99</v>
       </c>
       <c r="H13">
-        <v>-65.31999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-77.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="C14">
-        <v>894</v>
+        <v>537</v>
       </c>
       <c r="D14">
-        <v>456</v>
+        <v>317</v>
       </c>
       <c r="E14">
-        <v>565</v>
+        <v>356</v>
       </c>
       <c r="F14">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G14">
-        <v>-48.99</v>
+        <v>-40.97</v>
       </c>
       <c r="H14">
-        <v>-77.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-61.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C15">
-        <v>537</v>
+        <v>766</v>
       </c>
       <c r="D15">
-        <v>317</v>
+        <v>468</v>
       </c>
       <c r="E15">
-        <v>356</v>
+        <v>552</v>
       </c>
       <c r="F15">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="G15">
-        <v>-40.97</v>
+        <v>-38.9</v>
       </c>
       <c r="H15">
-        <v>-61.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-53.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C16">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="D16">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E16">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F16">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G16">
-        <v>-38.9</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="H16">
-        <v>-53.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>234</v>
-      </c>
-      <c r="C17">
-        <v>789</v>
-      </c>
-      <c r="D17">
-        <v>475</v>
-      </c>
-      <c r="E17">
-        <v>555</v>
-      </c>
-      <c r="F17">
-        <v>241</v>
-      </c>
-      <c r="G17">
-        <v>-39.8</v>
-      </c>
-      <c r="H17">
         <v>-56.58</v>
       </c>
     </row>
